--- a/va_facility_data_2025-02-20/Athens VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Athens%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Athens VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Athens%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf7df91197eab47068a6a24013c812c4d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7c154dc514764799afa8a6f7a12ea309"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R84b1685687574472826721cc40b80b38"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R98aee50f7617468fbd82f0391fd4d51e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4879a90e22b1413fbb9b824bc5bcd7d7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd936594647054deaab355a2057dae549"/>
   </x:sheets>
 </x:workbook>
 </file>
